--- a/simulated_data/10nodes_5len_trial0.xlsx
+++ b/simulated_data/10nodes_5len_trial0.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.830038965860356</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.830038965860367</v>
+        <v>6.38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.029999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.725</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.165</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.689463992283021</v>
+        <v>6.38</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.689463992283005</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.245</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.715457393325749</v>
+        <v>3.97</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.71545739332571</v>
+        <v>1.455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.015</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7283270137083879</v>
+        <v>4.029999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7283270137083859</v>
+        <v>1.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5780065975501453</v>
+        <v>4.62</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5780065975501386</v>
+        <v>2.49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.965</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.331923589557729</v>
+        <v>5.725</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.331923589557742</v>
+        <v>0.925</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.19</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.853503901002927</v>
+        <v>6.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.853503901002904</v>
+        <v>1.785</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.415</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1007699677388816</v>
+        <v>2.415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.100769967738893</v>
+        <v>1.71</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.625</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.020524950658696</v>
+        <v>3.04</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.02052495065865</v>
+        <v>1.745</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.455</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.165</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3.245</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.22</v>
+        <v>4.75</v>
       </c>
       <c r="D2" t="n">
-        <v>4.57</v>
+        <v>3.87</v>
       </c>
       <c r="E2" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.15</v>
+        <v>5.14</v>
       </c>
       <c r="H2" t="n">
-        <v>5.27</v>
+        <v>4.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>3.27</v>
       </c>
       <c r="J2" t="n">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="K2" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.22</v>
+        <v>4.75</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="n">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="H3" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.61</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.79</v>
+        <v>1.26</v>
       </c>
       <c r="K3" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.57</v>
+        <v>3.87</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="F4" t="n">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="H4" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I4" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>3.19</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="I5" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="J5" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="K5" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.28</v>
+        <v>2.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="D6" t="n">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="E6" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="H6" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.67</v>
+        <v>0.61</v>
       </c>
       <c r="J6" t="n">
-        <v>2.49</v>
+        <v>2.02</v>
       </c>
       <c r="K6" t="n">
-        <v>2.91</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.15</v>
+        <v>5.14</v>
       </c>
       <c r="C7" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="E7" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="F7" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.98</v>
+        <v>1.44</v>
       </c>
       <c r="I7" t="n">
-        <v>3.77</v>
+        <v>3.08</v>
       </c>
       <c r="J7" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.73</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.27</v>
+        <v>4.02</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E8" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="F8" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.98</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="J8" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.74</v>
+        <v>3.27</v>
       </c>
       <c r="C9" t="n">
-        <v>2.61</v>
+        <v>2.15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="E9" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>0.61</v>
       </c>
       <c r="G9" t="n">
-        <v>3.77</v>
+        <v>3.08</v>
       </c>
       <c r="H9" t="n">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="K9" t="n">
-        <v>1.28</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.79</v>
+        <v>1.26</v>
       </c>
       <c r="D10" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F10" t="n">
-        <v>2.49</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="C11" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="n">
-        <v>3.19</v>
+        <v>2.43</v>
       </c>
       <c r="E11" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2.91</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>4.73</v>
+        <v>3.69</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
       <c r="I11" t="n">
-        <v>1.28</v>
+        <v>2.13</v>
       </c>
       <c r="J11" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.139727902793247</v>
+        <v>9.13531702819559</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.94415517677359</v>
+        <v>3.587997778271388</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.134671261395366</v>
+        <v>6.389929596764267</v>
       </c>
       <c r="C3" t="n">
-        <v>1.120629958376579</v>
+        <v>7.459343618609981</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1566978482162166</v>
+        <v>7.710147440519694</v>
       </c>
       <c r="C4" t="n">
-        <v>1.171076812365004</v>
+        <v>7.18876245642339</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3026338726933745</v>
+        <v>6.542061641976048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0250475840603312</v>
+        <v>6.500522100616687</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.639195098338511</v>
+        <v>6.586174566772399</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9369351827621089</v>
+        <v>4.742778809837202</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8006878047344657</v>
+        <v>7.080658924391155</v>
       </c>
       <c r="C7" t="n">
-        <v>2.452469714771089</v>
+        <v>8.29771434844367</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02783196599134254</v>
+        <v>8.293619460599464</v>
       </c>
       <c r="C8" t="n">
-        <v>1.856443225635605</v>
+        <v>7.513856542010757</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006735975609882265</v>
+        <v>6.35014795502802</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.229328253693588</v>
+        <v>5.306544411956756</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4868226106803481</v>
+        <v>7.326767099449953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3530700260446519</v>
+        <v>6.618741305520884</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.115035665853367</v>
+        <v>8.434707289056149</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.868318708023973</v>
+        <v>4.870008789755993</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.63</v>
+        <v>4.98</v>
       </c>
       <c r="D2" t="n">
-        <v>4.51</v>
+        <v>5.01</v>
       </c>
       <c r="E2" t="n">
-        <v>3.04</v>
+        <v>3.62</v>
       </c>
       <c r="F2" t="n">
-        <v>3.92</v>
+        <v>3.41</v>
       </c>
       <c r="G2" t="n">
-        <v>5.71</v>
+        <v>5.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.79</v>
+        <v>5.21</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.32</v>
+        <v>4.03</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.63</v>
+        <v>4.98</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="E3" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="J3" t="n">
-        <v>1.84</v>
+        <v>0.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.51</v>
+        <v>5.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
       <c r="H4" t="n">
-        <v>1.16</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="K4" t="n">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.04</v>
+        <v>3.62</v>
       </c>
       <c r="C5" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>0.21</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.27</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="J5" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="K5" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.92</v>
+        <v>3.41</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="E6" t="n">
-        <v>1.64</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.04</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.68</v>
+        <v>0.96</v>
       </c>
       <c r="J6" t="n">
-        <v>2.28</v>
+        <v>0.63</v>
       </c>
       <c r="K6" t="n">
-        <v>3.64</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.71</v>
+        <v>5.89</v>
       </c>
       <c r="C7" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
       <c r="E7" t="n">
-        <v>2.68</v>
+        <v>2.27</v>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48</v>
+        <v>0.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="J7" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.87</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.79</v>
+        <v>5.21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.88</v>
+        <v>0.23</v>
       </c>
       <c r="D8" t="n">
-        <v>1.16</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="F8" t="n">
-        <v>3.04</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>0.68</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.48</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="C9" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="D9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.76</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.48</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="K9" t="n">
-        <v>2.16</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.32</v>
+        <v>4.03</v>
       </c>
       <c r="C10" t="n">
-        <v>1.84</v>
+        <v>0.95</v>
       </c>
       <c r="D10" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="E10" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>0.63</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="I10" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="n">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="E11" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="F11" t="n">
-        <v>3.64</v>
+        <v>2.23</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87</v>
+        <v>4.71</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.16</v>
+        <v>1.27</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8049686369473067</v>
+        <v>1.830038965860356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04540747468805306</v>
+        <v>1.830038965860367</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3512134975446955</v>
+        <v>-1.689463992283021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1281243243405706</v>
+        <v>-1.689463992283005</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3181928178063735</v>
+        <v>-1.715457393325749</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04805843943981338</v>
+        <v>-1.71545739332571</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04397684867165666</v>
+        <v>-0.7283270137083879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0102753441974452</v>
+        <v>-0.7283270137083859</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1137240490281003</v>
+        <v>-0.5780065975501453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3873316151989312</v>
+        <v>-0.5780065975501386</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6169191353181807</v>
+        <v>-2.331923589557729</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1155934888632705</v>
+        <v>-2.331923589557742</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3266680101112718</v>
+        <v>-1.853503901002927</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.340428233729418</v>
+        <v>-1.853503901002904</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2900727028286763</v>
+        <v>0.1007699677388816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2687079547841745</v>
+        <v>0.100769967738893</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005303526172886773</v>
+        <v>-1.020524950658696</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1691598822091662</v>
+        <v>-1.02052495065865</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6044270455765399</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1729163234850712</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.61</v>
+        <v>5.03</v>
       </c>
       <c r="D2" t="n">
-        <v>4.99</v>
+        <v>4.78</v>
       </c>
       <c r="E2" t="n">
-        <v>3.65</v>
+        <v>3.76</v>
       </c>
       <c r="F2" t="n">
-        <v>3.08</v>
+        <v>4.09</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
+        <v>6.06</v>
       </c>
       <c r="H2" t="n">
-        <v>5.47</v>
+        <v>5.57</v>
       </c>
       <c r="I2" t="n">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
-        <v>4.12</v>
+        <v>3.84</v>
       </c>
       <c r="K2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.61</v>
+        <v>5.03</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>1.14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>3.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>0.86</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.99</v>
+        <v>4.78</v>
       </c>
       <c r="C4" t="n">
-        <v>0.38</v>
+        <v>1.14</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>0.91</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>2.23</v>
       </c>
       <c r="J4" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="K4" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.65</v>
+        <v>3.76</v>
       </c>
       <c r="C5" t="n">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.62</v>
       </c>
       <c r="G5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.26</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.08</v>
+        <v>4.09</v>
       </c>
       <c r="C6" t="n">
-        <v>1.53</v>
+        <v>3.03</v>
       </c>
       <c r="D6" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.62</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>3.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="I6" t="n">
-        <v>0.75</v>
+        <v>1.87</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="K6" t="n">
-        <v>1.62</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.9</v>
+        <v>6.06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91</v>
+        <v>1.8</v>
       </c>
       <c r="E7" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="F7" t="n">
-        <v>2.82</v>
+        <v>3.76</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.44</v>
+        <v>1.57</v>
       </c>
       <c r="I7" t="n">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="J7" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.47</v>
+        <v>5.57</v>
       </c>
       <c r="C8" t="n">
-        <v>0.86</v>
+        <v>1.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1.82</v>
+        <v>2.21</v>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="J8" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
       <c r="C9" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="D9" t="n">
-        <v>2.66</v>
+        <v>2.23</v>
       </c>
       <c r="E9" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="K9" t="n">
-        <v>0.87</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.12</v>
+        <v>3.84</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>1.37</v>
       </c>
       <c r="D10" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="E10" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="F10" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.15</v>
+        <v>3.54</v>
       </c>
       <c r="D11" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
       <c r="E11" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>3.03</v>
       </c>
       <c r="G11" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.87</v>
+        <v>1.23</v>
       </c>
       <c r="J11" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.816547717648749</v>
+        <v>0.3820162485299279</v>
       </c>
       <c r="C2" t="n">
-        <v>1.816547717648762</v>
+        <v>3.6218435847492</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.443755506966015</v>
+        <v>-0.9773735292087666</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.443755506966208</v>
+        <v>-1.224911843196299</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.713859802830856</v>
+        <v>0.1580259246802775</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.713859802830625</v>
+        <v>-1.149739470096724</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.760929493245</v>
+        <v>-0.7474943108955969</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.760929493245029</v>
+        <v>0.03494907428984089</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3633189681777973</v>
+        <v>1.866370279856234</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3633189681777755</v>
+        <v>-0.1850144424619321</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.35759289352993</v>
+        <v>-1.300159557024905</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.357592893529996</v>
+        <v>-2.204936719877749</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.048388868685879</v>
+        <v>0.2452685968591732</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.048388868685864</v>
+        <v>-1.941825285254326</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1689011559902098</v>
+        <v>0.474327769689167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1689011559902221</v>
+        <v>1.058924646447228</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.093717061758691</v>
+        <v>-0.0743029588239147</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.093717061758519</v>
+        <v>-0.1898758454295325</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7825686671891947</v>
+        <v>-0.02667846366159655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7825686671892095</v>
+        <v>2.180586300830295</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001494884490966797</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.846687316894531e-05</v>
+        <v>3.66</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08547759056091309</v>
+        <v>4.33</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7019948959350586</v>
+        <v>2.88</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1125073432922363</v>
+        <v>4.44</v>
       </c>
       <c r="G2" t="n">
-        <v>1.358747959136963</v>
+        <v>4.87</v>
       </c>
       <c r="H2" t="n">
-        <v>0.768418550491333</v>
+        <v>4.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.1020537016568195</v>
       </c>
       <c r="C2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.232558139534883</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5866666666666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2462880309465081</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001494884490966797</v>
+        <v>-0.7642843348895884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.32563079587146</v>
       </c>
       <c r="C3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7480620155038759</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4755555555555555</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1924722605881104</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.846687316894531e-05</v>
+        <v>0.1444143813693995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.0672326441725466</v>
       </c>
       <c r="C4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7171052631578948</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5088888888888891</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2233483422936615</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.08547759056091309</v>
+        <v>0.331523598393213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.07640447473366321</v>
       </c>
       <c r="C5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9655172413793103</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3020974269054869</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7019948959350586</v>
+        <v>-0.02791313723467143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.5996901879569395</v>
       </c>
       <c r="C6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.044776119402985</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4179999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1982106344026899</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1125073432922363</v>
+        <v>0.138922682477651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.5151479628586483</v>
       </c>
       <c r="C7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.149253731343283</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5044444444444445</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2594383059886739</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.358747959136963</v>
+        <v>0.4107634870604827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.06747739471027704</v>
       </c>
       <c r="C8" t="n">
-        <v>2.47</v>
+        <v>0.4311790693583881</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3806706296202317</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2439063591205028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03226536444452385</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1040848825095653</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.002309335280554516</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4920955619203016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9253731343283581</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6019999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.283849529835231</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.768418550491333</v>
+        <v>3.14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.816547717648749</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.816547717648762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.443755506966015</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.443755506966208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.713859802830856</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.713859802830625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.760929493245</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.760929493245029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3633189681777973</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3633189681777755</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.35759289352993</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.357592893529996</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.048388868685879</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.048388868685864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1689011559902098</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1689011559902221</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.093717061758691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.093717061758519</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7825686671891947</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7825686671892095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5871285043770231</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1518707725772553</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2800812305496759</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3489348831486734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2346071391730797</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.4609150613993334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.04535068921144281</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.08975090453879445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06238017065539281</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3067821991803085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4096672580762953</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2663351193777295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3150746447833863</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1529037578886005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2496659588981608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.05961241603231926</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.04391147227352842</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6636844662650442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4295178001351745</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04713611606282092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.121141562822396</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.914299579931451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-3.475115508556131</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2295311883856815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.654010169339015</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.008375942986627137</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.061480841750347</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.565544430510289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5751900324923669</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8740406835301043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.177098598654665</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.465510210663121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-3.608957546337756</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7501126338451364</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.313707365261007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.336589837362303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.84380377333305</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.281492498198135</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.810427477395193</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.8510997294398124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002653598785400391</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002779960632324219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002672672271728516</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.080327272415161</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.233463287353516</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1956584453582764</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.151557445526123</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04103875160217285</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01378774642944336</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0162653923034668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.66</v>
+        <v>3.62</v>
       </c>
       <c r="D2" t="n">
-        <v>4.04</v>
+        <v>4.62</v>
       </c>
       <c r="E2" t="n">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="F2" t="n">
-        <v>3.07</v>
+        <v>4.92</v>
       </c>
       <c r="G2" t="n">
-        <v>6.22</v>
+        <v>4.77</v>
       </c>
       <c r="H2" t="n">
-        <v>5.83</v>
+        <v>4.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.1</v>
+        <v>3.62</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="E3" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>0.43</v>
       </c>
       <c r="K3" t="n">
-        <v>3.03</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.9</v>
+        <v>4.62</v>
       </c>
       <c r="C4" t="n">
-        <v>1.86</v>
+        <v>1.28</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="F4" t="n">
-        <v>2.11</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="H4" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>5.26</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.01</v>
+        <v>3.35</v>
       </c>
       <c r="C5" t="n">
-        <v>1.27</v>
+        <v>0.59</v>
       </c>
       <c r="D5" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.72</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.17</v>
+        <v>4.92</v>
       </c>
       <c r="C6" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="D6" t="n">
-        <v>2.08</v>
+        <v>1.34</v>
       </c>
       <c r="E6" t="n">
-        <v>1.88</v>
+        <v>2.93</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>2.37</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>0.79</v>
       </c>
       <c r="I6" t="n">
-        <v>1.86</v>
+        <v>3.34</v>
       </c>
       <c r="J6" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K6" t="n">
-        <v>3.69</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.23</v>
+        <v>4.77</v>
       </c>
       <c r="C7" t="n">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E7" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.46</v>
+        <v>2.37</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="I7" t="n">
-        <v>3.81</v>
+        <v>2.59</v>
       </c>
       <c r="J7" t="n">
-        <v>3.09</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.21</v>
+        <v>4.22</v>
       </c>
       <c r="C8" t="n">
-        <v>2.01</v>
+        <v>1.62</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>0.79</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.13</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
       <c r="K8" t="n">
-        <v>3.88</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="D9" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="E9" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>3.34</v>
       </c>
       <c r="G9" t="n">
-        <v>5.77</v>
+        <v>2.59</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>2.55</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="K9" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="C10" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.19</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.16</v>
-      </c>
       <c r="I10" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.39</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="C11" t="n">
-        <v>3.46</v>
+        <v>2.36</v>
       </c>
       <c r="D11" t="n">
-        <v>2.77</v>
+        <v>3.12</v>
       </c>
       <c r="E11" t="n">
-        <v>1.84</v>
+        <v>2.33</v>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>3.27</v>
       </c>
       <c r="G11" t="n">
-        <v>5.58</v>
+        <v>3.48</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="J11" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.955518012137029</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.744956309047455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.521118019390818</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.296040446743927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.800643521950596</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.311312205503593</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.951718956361915</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.436540066023464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.636930604247484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.263119214897129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.25280871934322</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.187916883688026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.851137828461394</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.376775610198476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.305561872262534</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.479511500803115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.887535775631985</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.07668413393494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.564002716351968</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.142607631172158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.232558139534883</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5866666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2462880309465081</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001494884490966797</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7480620155038759</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4755555555555555</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1924722605881104</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.846687316894531e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7171052631578948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5088888888888891</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2233483422936615</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08547759056091309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9655172413793103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3020974269054869</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7019948959350586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.044776119402985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4179999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1982106344026899</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1125073432922363</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.149253731343283</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5044444444444445</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2594383059886739</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.358747959136963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9253731343283581</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6019999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.283849529835231</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.768418550491333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.38</v>
+        <v>7.66</v>
       </c>
       <c r="D2" t="n">
-        <v>3.97</v>
+        <v>4.04</v>
       </c>
       <c r="E2" t="n">
-        <v>4.029999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="F2" t="n">
-        <v>4.62</v>
+        <v>3.07</v>
       </c>
       <c r="G2" t="n">
-        <v>5.725</v>
+        <v>6.22</v>
       </c>
       <c r="H2" t="n">
-        <v>6.52</v>
+        <v>5.83</v>
       </c>
       <c r="I2" t="n">
-        <v>2.415</v>
+        <v>2.01</v>
       </c>
       <c r="J2" t="n">
-        <v>3.04</v>
+        <v>3.94</v>
       </c>
       <c r="K2" t="n">
-        <v>1.165</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.38</v>
+        <v>5.1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.455</v>
+        <v>1.05</v>
       </c>
       <c r="E3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.22</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.925</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.785</v>
+        <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.745</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.245</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.455</v>
+        <v>1.86</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.255</v>
+        <v>2.88</v>
       </c>
       <c r="F4" t="n">
-        <v>2.095</v>
+        <v>2.11</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I4" t="n">
-        <v>2.185</v>
+        <v>2.51</v>
       </c>
       <c r="J4" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.015</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.029999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="C5" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="D5" t="n">
-        <v>2.255</v>
+        <v>1.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.27</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.005</v>
+        <v>1.68</v>
       </c>
       <c r="I5" t="n">
-        <v>1.305</v>
+        <v>1.18</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.62</v>
+        <v>6.17</v>
       </c>
       <c r="C6" t="n">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="D6" t="n">
-        <v>2.095</v>
+        <v>2.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.305</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.39</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>1.865</v>
+        <v>1.86</v>
       </c>
       <c r="J6" t="n">
-        <v>2.445</v>
+        <v>2.07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.965</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.725</v>
+        <v>5.23</v>
       </c>
       <c r="C7" t="n">
-        <v>0.925</v>
+        <v>0.63</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="E7" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="F7" t="n">
-        <v>4.305</v>
+        <v>5.46</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.585</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.79</v>
+        <v>3.81</v>
       </c>
       <c r="J7" t="n">
-        <v>2.385</v>
+        <v>3.09</v>
       </c>
       <c r="K7" t="n">
-        <v>5.19</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.52</v>
+        <v>7.21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.785</v>
+        <v>2.01</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E8" t="n">
-        <v>2.005</v>
+        <v>2.33</v>
       </c>
       <c r="F8" t="n">
-        <v>2.39</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1.585</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.055</v>
+        <v>3.13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.56</v>
+        <v>0.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.415</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.415</v>
+        <v>2.82</v>
       </c>
       <c r="C9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="D9" t="n">
-        <v>2.185</v>
+        <v>1.86</v>
       </c>
       <c r="E9" t="n">
-        <v>1.305</v>
+        <v>1.43</v>
       </c>
       <c r="F9" t="n">
-        <v>1.865</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>4.79</v>
+        <v>5.77</v>
       </c>
       <c r="H9" t="n">
-        <v>3.055</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="K9" t="n">
-        <v>1.625</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.04</v>
+        <v>2.14</v>
       </c>
       <c r="C10" t="n">
-        <v>1.745</v>
+        <v>1.19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2.445</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.385</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.455</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.165</v>
+        <v>1.21</v>
       </c>
       <c r="C11" t="n">
-        <v>3.245</v>
+        <v>3.46</v>
       </c>
       <c r="D11" t="n">
-        <v>4.015</v>
+        <v>2.77</v>
       </c>
       <c r="E11" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="F11" t="n">
-        <v>2.965</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>5.19</v>
+        <v>5.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.415</v>
+        <v>2.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1.625</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>2.455</v>
+        <v>1.52</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.955518012137029</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.744956309047455</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.521118019390818</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.296040446743927</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.800643521950596</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.311312205503593</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.951718956361915</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.436540066023464</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.636930604247484</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.263119214897129</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.25280871934322</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.187916883688026</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.851137828461394</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.376775610198476</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.305561872262534</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.479511500803115</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.887535775631985</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.07668413393494</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.564002716351968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.142607631172158</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.98</v>
+        <v>6.25</v>
       </c>
       <c r="D2" t="n">
-        <v>5.01</v>
+        <v>3.97</v>
       </c>
       <c r="E2" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="F2" t="n">
-        <v>3.41</v>
+        <v>4.35</v>
       </c>
       <c r="G2" t="n">
-        <v>5.89</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>5.21</v>
+        <v>6.49</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>4.03</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.98</v>
+        <v>6.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="G3" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23</v>
+        <v>1.77</v>
       </c>
       <c r="I3" t="n">
-        <v>2.53</v>
+        <v>1.71</v>
       </c>
       <c r="J3" t="n">
-        <v>0.95</v>
+        <v>1.66</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.01</v>
+        <v>3.97</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>2.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.87</v>
+        <v>1.16</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>2.57</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
-        <v>0.98</v>
+        <v>0.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="C5" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.21</v>
+        <v>2.23</v>
       </c>
       <c r="G5" t="n">
-        <v>2.27</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>0.41</v>
+        <v>0.92</v>
       </c>
       <c r="K5" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.41</v>
+        <v>4.35</v>
       </c>
       <c r="C6" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="D6" t="n">
-        <v>1.61</v>
+        <v>2.09</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>2.23</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>4.15</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>0.96</v>
+        <v>1.86</v>
       </c>
       <c r="J6" t="n">
-        <v>0.63</v>
+        <v>2.41</v>
       </c>
       <c r="K6" t="n">
-        <v>2.23</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.89</v>
+        <v>5.7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87</v>
+        <v>1.16</v>
       </c>
       <c r="E7" t="n">
-        <v>2.27</v>
+        <v>1.59</v>
       </c>
       <c r="F7" t="n">
-        <v>2.48</v>
+        <v>4.15</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>1.48</v>
       </c>
       <c r="I7" t="n">
-        <v>3.44</v>
+        <v>4.69</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K7" t="n">
-        <v>4.71</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.21</v>
+        <v>6.49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23</v>
+        <v>1.77</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="C9" t="n">
-        <v>2.53</v>
+        <v>1.71</v>
       </c>
       <c r="D9" t="n">
-        <v>2.57</v>
+        <v>2.16</v>
       </c>
       <c r="E9" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.96</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
-        <v>3.44</v>
+        <v>4.69</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.59</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.03</v>
+        <v>2.9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.95</v>
+        <v>1.66</v>
       </c>
       <c r="D10" t="n">
-        <v>0.98</v>
+        <v>0.55</v>
       </c>
       <c r="E10" t="n">
-        <v>0.41</v>
+        <v>0.92</v>
       </c>
       <c r="F10" t="n">
-        <v>0.63</v>
+        <v>2.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="I10" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="C11" t="n">
-        <v>3.8</v>
+        <v>3.24</v>
       </c>
       <c r="D11" t="n">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="E11" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="F11" t="n">
-        <v>2.23</v>
+        <v>2.87</v>
       </c>
       <c r="G11" t="n">
-        <v>4.71</v>
+        <v>5.17</v>
       </c>
       <c r="H11" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
